--- a/biology/Botanique/Orchis_pâle/Orchis_pâle.xlsx
+++ b/biology/Botanique/Orchis_pâle/Orchis_pâle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orchis_p%C3%A2le</t>
+          <t>Orchis_pâle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchis pallens
 L’Orchis pâle (Orchis pallens) est une espèce d'orchidée terrestre d'aire européenne, appartenant au genre Orchis L., 1753 et au groupe de l'Orchis mâle (Orchis mascula (L.) L., 1755).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orchis_p%C3%A2le</t>
+          <t>Orchis_pâle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du latin pallens (pâle), se référant à la teinte des fleurs.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orchis_p%C3%A2le</t>
+          <t>Orchis_pâle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante : 15 à 40 cm, généralement robuste, à tige ronde.
 Feuilles : 4 à 6, basilaires, larges et luisantes, sans macules.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orchis_p%C3%A2le</t>
+          <t>Orchis_pâle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'avril à juin, selon l'altitude.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Orchis_p%C3%A2le</t>
+          <t>Orchis_pâle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de mi-ombre surtout. Lisières forestières (feuillus et résineux), taillis, alpages, de 400 à 2,400 m (optimum à l'étage montagnard), sur terrains calcaires à légèrement acides.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Orchis_p%C3%A2le</t>
+          <t>Orchis_pâle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aire européenne. Assez répandu à rare en France : Pyrénées, Massif central, Alpes, Haut-Rhin.
 </t>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Orchis_p%C3%A2le</t>
+          <t>Orchis_pâle</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, plante protégée régionalement : Alsace, Auvergne et Midi-Pyrénées (Tarn uniquement).
 Statut de conservation UICN : Préoccupation mineure (LC).
